--- a/QA_Template.xlsx
+++ b/QA_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Recurring Reports\Setup_Audit_Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_Development\Weekly_MPPS - Tues 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6BC5A5-E077-428C-A06B-85D213F30A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC793A88-555A-4AC6-9DEA-F34FF424AC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7B154FD-1F44-471F-8429-137903B4C740}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7B154FD-1F44-471F-8429-137903B4C740}"/>
   </bookViews>
   <sheets>
     <sheet name="What's New" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Case #</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>VOI Addition</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>Remove  "L, M, AM, AN, AQ, DZ"</t>
   </si>
 </sst>
 </file>
@@ -144,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D986761-48A3-42BD-BC7F-6BD5158D94F3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +515,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45731</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16052852</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="javascript:currentFormName='form_widget_29';storeblnShowDataChangeMessage(true,'2','null');;drillDownAction('2','1',';funViewAction(\'crm/CRM_Case_Screen_Tab.xml\',\'XML\',2,\'1\',0,true)','null','null','0');;storeblnShowDataChangeMessage(false);" xr:uid="{246F3A6D-9547-4031-ABD9-409A34690E03}"/>
